--- a/Testing/Sprint 1 Tests/SR_11.2.xlsx
+++ b/Testing/Sprint 1 Tests/SR_11.2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamel\Documents\GitHub\StudyRing\Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -237,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,11 +605,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -632,15 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -730,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,26 +758,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,23 +793,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1011,47 +972,47 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1059,36 +1020,36 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1108,98 +1069,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C10" s="26"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
@@ -1238,10 +1199,10 @@
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1272,7 +1233,7 @@
       </c>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1433,7 +1394,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1456,7 +1417,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -1479,7 +1440,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -1502,7 +1463,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -1525,7 +1486,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -1548,7 +1509,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>2</v>
       </c>
@@ -1571,7 +1532,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -1594,7 +1555,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>

--- a/Testing/Sprint 1 Tests/SR_11.2.xlsx
+++ b/Testing/Sprint 1 Tests/SR_11.2.xlsx
@@ -169,45 +169,24 @@
     <t>Test title</t>
   </si>
   <si>
-    <t>[Sub-story] Login</t>
-  </si>
-  <si>
-    <t>User is able to pass authentication successfully</t>
-  </si>
-  <si>
     <t>Pre-condition</t>
   </si>
   <si>
-    <t>Hold a valid username and password</t>
-  </si>
-  <si>
     <t>Tested by:</t>
   </si>
   <si>
-    <t>Pamela Khouri</t>
-  </si>
-  <si>
-    <t>1- Navigate to the login page</t>
-  </si>
-  <si>
     <t>2- Enter a valid username or email</t>
   </si>
   <si>
     <t>3- Enter a valid password</t>
   </si>
   <si>
-    <t>4 - Click on the login button</t>
-  </si>
-  <si>
     <t>Tested on:</t>
   </si>
   <si>
     <t>12-04-2017</t>
   </si>
   <si>
-    <t>The user is logged in and redirected to the main dashboard page</t>
-  </si>
-  <si>
     <t>Test data</t>
   </si>
   <si>
@@ -223,10 +202,31 @@
     <t>Post-condition:</t>
   </si>
   <si>
-    <t>Account details are logged in the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user cannot log in and remains on the login page. </t>
+    <t>Brandon Goldwax</t>
+  </si>
+  <si>
+    <t>[Sub-story] Register</t>
+  </si>
+  <si>
+    <t>User is able to successfully register</t>
+  </si>
+  <si>
+    <t>1- Navigate to the register page</t>
+  </si>
+  <si>
+    <t>4 - Click on the register button</t>
+  </si>
+  <si>
+    <t>The user is registered using the inputed username/email and password then is redirected to the login page</t>
+  </si>
+  <si>
+    <t>The user cannot register if the username/email is already used</t>
+  </si>
+  <si>
+    <t>Account details are registered in the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold a valid and unused username and password, </t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,13 +1010,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,13 +1024,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
@@ -1038,15 +1038,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1069,16 +1069,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>0</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="22"/>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="22"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="27"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>60</v>
